--- a/Week6/dictionary/gr2021_l2.xlsx
+++ b/Week6/dictionary/gr2021_l2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2021\Winter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556AA779-6CB2-C14D-903F-414853AF8701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="90" windowWidth="13800" windowHeight="10830"/>
+    <workbookView xWindow="15760" yWindow="500" windowWidth="13800" windowHeight="10840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
@@ -474,21 +475,21 @@
     <t>GR2021_L2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">This file contains the graduation rate status as of August 31, 2021 for the cohort of full-time, first-time degree/certificate-seeking undergraduates enrolled in 2018 for less-than-2-year institutions. Included are the number of students enrolled in 2018 and the number of those students that completed their program in 100 or 150 percent of normal time, or had transferred out. Beginning with 2016, graduation rate data are now available for the subcohorts of Pell grant recipients,  Subsidized Stafford Loan recipients not receiving Pell Grants, and students not receiving Pell grants or subsidized Stafford loans. The number who completed in 150 percent of normal time are included for the subcohorts.
 </t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -546,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -575,10 +576,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -594,13 +592,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -630,9 +625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -670,9 +665,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +702,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,7 +737,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,49 +910,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.19921875" style="1"/>
+    <col min="10" max="10" width="25.796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -970,7 +965,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -986,116 +981,116 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="8" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="67.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="12" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="12" spans="1:11" ht="66.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1115,26 +1110,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="113" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1174,13 +1169,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>80906</v>
       </c>
@@ -1203,7 +1198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>80907</v>
       </c>
@@ -1226,7 +1221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>80915</v>
       </c>
@@ -1249,7 +1244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>81401</v>
       </c>
@@ -1272,7 +1267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>80916</v>
       </c>
@@ -1295,7 +1290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>80917</v>
       </c>
@@ -1318,7 +1313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>80908</v>
       </c>
@@ -1341,7 +1336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>80909</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>81626</v>
       </c>
@@ -1387,7 +1382,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>81631</v>
       </c>
@@ -1410,7 +1405,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>81636</v>
       </c>
@@ -1433,7 +1428,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>81641</v>
       </c>
@@ -1456,7 +1451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>81646</v>
       </c>
@@ -1479,7 +1474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>81651</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>81656</v>
       </c>
@@ -1525,7 +1520,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>81661</v>
       </c>
@@ -1548,7 +1543,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>81666</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>81671</v>
       </c>
@@ -1594,7 +1589,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>81676</v>
       </c>
@@ -1617,7 +1612,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>81681</v>
       </c>
@@ -1640,7 +1635,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1649,7 +1644,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1658,7 +1653,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1667,7 +1662,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1676,7 +1671,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1685,7 +1680,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1694,7 +1689,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1703,7 +1698,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1712,7 +1707,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1721,7 +1716,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1730,7 +1725,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1739,7 +1734,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1748,7 +1743,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1757,7 +1752,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1766,7 +1761,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1775,7 +1770,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1784,7 +1779,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1793,7 +1788,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1802,7 +1797,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1811,7 +1806,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1819,7 +1814,7 @@
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1828,7 +1823,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1837,7 +1832,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1846,7 +1841,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1854,7 +1849,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1863,7 +1858,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1871,7 +1866,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1880,7 +1875,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1889,7 +1884,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1898,7 +1893,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1906,7 +1901,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1915,7 +1910,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1923,7 +1918,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1932,7 +1927,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1941,7 +1936,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1950,7 +1945,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1958,7 +1953,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1967,7 +1962,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1975,7 +1970,7 @@
       <c r="E60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1984,7 +1979,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1993,7 +1988,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2002,7 +1997,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2011,7 +2006,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2020,7 +2015,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2029,7 +2024,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2038,7 +2033,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2047,7 +2042,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2056,7 +2051,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2065,7 +2060,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2074,7 +2069,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2083,7 +2078,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2092,7 +2087,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2101,7 +2096,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2110,7 +2105,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2119,7 +2114,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2128,7 +2123,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2137,7 +2132,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2146,7 +2141,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2155,7 +2150,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2164,7 +2159,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2173,7 +2168,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2182,7 +2177,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2191,7 +2186,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2200,7 +2195,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2209,7 +2204,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2218,7 +2213,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2227,7 +2222,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2236,7 +2231,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2245,7 +2240,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2254,7 +2249,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2263,7 +2258,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2272,7 +2267,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2281,7 +2276,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2290,7 +2285,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2299,7 +2294,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2308,7 +2303,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2317,7 +2312,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2326,7 +2321,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2335,7 +2330,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2344,16 +2339,16 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="16"/>
+      <c r="F102" s="15"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2361,7 +2356,7 @@
       <c r="E103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2369,7 +2364,7 @@
       <c r="E104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2378,7 +2373,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2387,7 +2382,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2396,7 +2391,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2405,7 +2400,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2414,7 +2409,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2423,7 +2418,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2432,7 +2427,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2441,7 +2436,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2449,16 +2444,16 @@
       <c r="E113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="16"/>
+      <c r="F114" s="15"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2466,7 +2461,7 @@
       <c r="E115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2474,7 +2469,7 @@
       <c r="E116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2482,7 +2477,7 @@
       <c r="E117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2490,16 +2485,16 @@
       <c r="E118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="16"/>
+      <c r="F119" s="15"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2507,7 +2502,7 @@
       <c r="E120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2515,7 +2510,7 @@
       <c r="E121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2523,7 +2518,7 @@
       <c r="E122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2531,7 +2526,7 @@
       <c r="E123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2539,7 +2534,7 @@
       <c r="E124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2547,7 +2542,7 @@
       <c r="E125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2555,16 +2550,16 @@
       <c r="E126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="16"/>
+      <c r="F127" s="15"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2573,7 +2568,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2582,7 +2577,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2591,7 +2586,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2600,7 +2595,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2609,7 +2604,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2617,16 +2612,16 @@
       <c r="E133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="16"/>
+      <c r="F134" s="15"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2635,7 +2630,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2644,7 +2639,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2653,7 +2648,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2669,7 +2664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2677,817 +2672,585 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="19"/>
-    <col min="2" max="2" width="11.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="144.85546875" style="19" customWidth="1"/>
-    <col min="4" max="257" width="8.7109375" style="20"/>
-    <col min="258" max="258" width="11.140625" style="20" customWidth="1"/>
-    <col min="259" max="259" width="144.85546875" style="20" customWidth="1"/>
-    <col min="260" max="513" width="8.7109375" style="20"/>
-    <col min="514" max="514" width="11.140625" style="20" customWidth="1"/>
-    <col min="515" max="515" width="144.85546875" style="20" customWidth="1"/>
-    <col min="516" max="769" width="8.7109375" style="20"/>
-    <col min="770" max="770" width="11.140625" style="20" customWidth="1"/>
-    <col min="771" max="771" width="144.85546875" style="20" customWidth="1"/>
-    <col min="772" max="1025" width="8.7109375" style="20"/>
-    <col min="1026" max="1026" width="11.140625" style="20" customWidth="1"/>
-    <col min="1027" max="1027" width="144.85546875" style="20" customWidth="1"/>
-    <col min="1028" max="1281" width="8.7109375" style="20"/>
-    <col min="1282" max="1282" width="11.140625" style="20" customWidth="1"/>
-    <col min="1283" max="1283" width="144.85546875" style="20" customWidth="1"/>
-    <col min="1284" max="1537" width="8.7109375" style="20"/>
-    <col min="1538" max="1538" width="11.140625" style="20" customWidth="1"/>
-    <col min="1539" max="1539" width="144.85546875" style="20" customWidth="1"/>
-    <col min="1540" max="1793" width="8.7109375" style="20"/>
-    <col min="1794" max="1794" width="11.140625" style="20" customWidth="1"/>
-    <col min="1795" max="1795" width="144.85546875" style="20" customWidth="1"/>
-    <col min="1796" max="2049" width="8.7109375" style="20"/>
-    <col min="2050" max="2050" width="11.140625" style="20" customWidth="1"/>
-    <col min="2051" max="2051" width="144.85546875" style="20" customWidth="1"/>
-    <col min="2052" max="2305" width="8.7109375" style="20"/>
-    <col min="2306" max="2306" width="11.140625" style="20" customWidth="1"/>
-    <col min="2307" max="2307" width="144.85546875" style="20" customWidth="1"/>
-    <col min="2308" max="2561" width="8.7109375" style="20"/>
-    <col min="2562" max="2562" width="11.140625" style="20" customWidth="1"/>
-    <col min="2563" max="2563" width="144.85546875" style="20" customWidth="1"/>
-    <col min="2564" max="2817" width="8.7109375" style="20"/>
-    <col min="2818" max="2818" width="11.140625" style="20" customWidth="1"/>
-    <col min="2819" max="2819" width="144.85546875" style="20" customWidth="1"/>
-    <col min="2820" max="3073" width="8.7109375" style="20"/>
-    <col min="3074" max="3074" width="11.140625" style="20" customWidth="1"/>
-    <col min="3075" max="3075" width="144.85546875" style="20" customWidth="1"/>
-    <col min="3076" max="3329" width="8.7109375" style="20"/>
-    <col min="3330" max="3330" width="11.140625" style="20" customWidth="1"/>
-    <col min="3331" max="3331" width="144.85546875" style="20" customWidth="1"/>
-    <col min="3332" max="3585" width="8.7109375" style="20"/>
-    <col min="3586" max="3586" width="11.140625" style="20" customWidth="1"/>
-    <col min="3587" max="3587" width="144.85546875" style="20" customWidth="1"/>
-    <col min="3588" max="3841" width="8.7109375" style="20"/>
-    <col min="3842" max="3842" width="11.140625" style="20" customWidth="1"/>
-    <col min="3843" max="3843" width="144.85546875" style="20" customWidth="1"/>
-    <col min="3844" max="4097" width="8.7109375" style="20"/>
-    <col min="4098" max="4098" width="11.140625" style="20" customWidth="1"/>
-    <col min="4099" max="4099" width="144.85546875" style="20" customWidth="1"/>
-    <col min="4100" max="4353" width="8.7109375" style="20"/>
-    <col min="4354" max="4354" width="11.140625" style="20" customWidth="1"/>
-    <col min="4355" max="4355" width="144.85546875" style="20" customWidth="1"/>
-    <col min="4356" max="4609" width="8.7109375" style="20"/>
-    <col min="4610" max="4610" width="11.140625" style="20" customWidth="1"/>
-    <col min="4611" max="4611" width="144.85546875" style="20" customWidth="1"/>
-    <col min="4612" max="4865" width="8.7109375" style="20"/>
-    <col min="4866" max="4866" width="11.140625" style="20" customWidth="1"/>
-    <col min="4867" max="4867" width="144.85546875" style="20" customWidth="1"/>
-    <col min="4868" max="5121" width="8.7109375" style="20"/>
-    <col min="5122" max="5122" width="11.140625" style="20" customWidth="1"/>
-    <col min="5123" max="5123" width="144.85546875" style="20" customWidth="1"/>
-    <col min="5124" max="5377" width="8.7109375" style="20"/>
-    <col min="5378" max="5378" width="11.140625" style="20" customWidth="1"/>
-    <col min="5379" max="5379" width="144.85546875" style="20" customWidth="1"/>
-    <col min="5380" max="5633" width="8.7109375" style="20"/>
-    <col min="5634" max="5634" width="11.140625" style="20" customWidth="1"/>
-    <col min="5635" max="5635" width="144.85546875" style="20" customWidth="1"/>
-    <col min="5636" max="5889" width="8.7109375" style="20"/>
-    <col min="5890" max="5890" width="11.140625" style="20" customWidth="1"/>
-    <col min="5891" max="5891" width="144.85546875" style="20" customWidth="1"/>
-    <col min="5892" max="6145" width="8.7109375" style="20"/>
-    <col min="6146" max="6146" width="11.140625" style="20" customWidth="1"/>
-    <col min="6147" max="6147" width="144.85546875" style="20" customWidth="1"/>
-    <col min="6148" max="6401" width="8.7109375" style="20"/>
-    <col min="6402" max="6402" width="11.140625" style="20" customWidth="1"/>
-    <col min="6403" max="6403" width="144.85546875" style="20" customWidth="1"/>
-    <col min="6404" max="6657" width="8.7109375" style="20"/>
-    <col min="6658" max="6658" width="11.140625" style="20" customWidth="1"/>
-    <col min="6659" max="6659" width="144.85546875" style="20" customWidth="1"/>
-    <col min="6660" max="6913" width="8.7109375" style="20"/>
-    <col min="6914" max="6914" width="11.140625" style="20" customWidth="1"/>
-    <col min="6915" max="6915" width="144.85546875" style="20" customWidth="1"/>
-    <col min="6916" max="7169" width="8.7109375" style="20"/>
-    <col min="7170" max="7170" width="11.140625" style="20" customWidth="1"/>
-    <col min="7171" max="7171" width="144.85546875" style="20" customWidth="1"/>
-    <col min="7172" max="7425" width="8.7109375" style="20"/>
-    <col min="7426" max="7426" width="11.140625" style="20" customWidth="1"/>
-    <col min="7427" max="7427" width="144.85546875" style="20" customWidth="1"/>
-    <col min="7428" max="7681" width="8.7109375" style="20"/>
-    <col min="7682" max="7682" width="11.140625" style="20" customWidth="1"/>
-    <col min="7683" max="7683" width="144.85546875" style="20" customWidth="1"/>
-    <col min="7684" max="7937" width="8.7109375" style="20"/>
-    <col min="7938" max="7938" width="11.140625" style="20" customWidth="1"/>
-    <col min="7939" max="7939" width="144.85546875" style="20" customWidth="1"/>
-    <col min="7940" max="8193" width="8.7109375" style="20"/>
-    <col min="8194" max="8194" width="11.140625" style="20" customWidth="1"/>
-    <col min="8195" max="8195" width="144.85546875" style="20" customWidth="1"/>
-    <col min="8196" max="8449" width="8.7109375" style="20"/>
-    <col min="8450" max="8450" width="11.140625" style="20" customWidth="1"/>
-    <col min="8451" max="8451" width="144.85546875" style="20" customWidth="1"/>
-    <col min="8452" max="8705" width="8.7109375" style="20"/>
-    <col min="8706" max="8706" width="11.140625" style="20" customWidth="1"/>
-    <col min="8707" max="8707" width="144.85546875" style="20" customWidth="1"/>
-    <col min="8708" max="8961" width="8.7109375" style="20"/>
-    <col min="8962" max="8962" width="11.140625" style="20" customWidth="1"/>
-    <col min="8963" max="8963" width="144.85546875" style="20" customWidth="1"/>
-    <col min="8964" max="9217" width="8.7109375" style="20"/>
-    <col min="9218" max="9218" width="11.140625" style="20" customWidth="1"/>
-    <col min="9219" max="9219" width="144.85546875" style="20" customWidth="1"/>
-    <col min="9220" max="9473" width="8.7109375" style="20"/>
-    <col min="9474" max="9474" width="11.140625" style="20" customWidth="1"/>
-    <col min="9475" max="9475" width="144.85546875" style="20" customWidth="1"/>
-    <col min="9476" max="9729" width="8.7109375" style="20"/>
-    <col min="9730" max="9730" width="11.140625" style="20" customWidth="1"/>
-    <col min="9731" max="9731" width="144.85546875" style="20" customWidth="1"/>
-    <col min="9732" max="9985" width="8.7109375" style="20"/>
-    <col min="9986" max="9986" width="11.140625" style="20" customWidth="1"/>
-    <col min="9987" max="9987" width="144.85546875" style="20" customWidth="1"/>
-    <col min="9988" max="10241" width="8.7109375" style="20"/>
-    <col min="10242" max="10242" width="11.140625" style="20" customWidth="1"/>
-    <col min="10243" max="10243" width="144.85546875" style="20" customWidth="1"/>
-    <col min="10244" max="10497" width="8.7109375" style="20"/>
-    <col min="10498" max="10498" width="11.140625" style="20" customWidth="1"/>
-    <col min="10499" max="10499" width="144.85546875" style="20" customWidth="1"/>
-    <col min="10500" max="10753" width="8.7109375" style="20"/>
-    <col min="10754" max="10754" width="11.140625" style="20" customWidth="1"/>
-    <col min="10755" max="10755" width="144.85546875" style="20" customWidth="1"/>
-    <col min="10756" max="11009" width="8.7109375" style="20"/>
-    <col min="11010" max="11010" width="11.140625" style="20" customWidth="1"/>
-    <col min="11011" max="11011" width="144.85546875" style="20" customWidth="1"/>
-    <col min="11012" max="11265" width="8.7109375" style="20"/>
-    <col min="11266" max="11266" width="11.140625" style="20" customWidth="1"/>
-    <col min="11267" max="11267" width="144.85546875" style="20" customWidth="1"/>
-    <col min="11268" max="11521" width="8.7109375" style="20"/>
-    <col min="11522" max="11522" width="11.140625" style="20" customWidth="1"/>
-    <col min="11523" max="11523" width="144.85546875" style="20" customWidth="1"/>
-    <col min="11524" max="11777" width="8.7109375" style="20"/>
-    <col min="11778" max="11778" width="11.140625" style="20" customWidth="1"/>
-    <col min="11779" max="11779" width="144.85546875" style="20" customWidth="1"/>
-    <col min="11780" max="12033" width="8.7109375" style="20"/>
-    <col min="12034" max="12034" width="11.140625" style="20" customWidth="1"/>
-    <col min="12035" max="12035" width="144.85546875" style="20" customWidth="1"/>
-    <col min="12036" max="12289" width="8.7109375" style="20"/>
-    <col min="12290" max="12290" width="11.140625" style="20" customWidth="1"/>
-    <col min="12291" max="12291" width="144.85546875" style="20" customWidth="1"/>
-    <col min="12292" max="12545" width="8.7109375" style="20"/>
-    <col min="12546" max="12546" width="11.140625" style="20" customWidth="1"/>
-    <col min="12547" max="12547" width="144.85546875" style="20" customWidth="1"/>
-    <col min="12548" max="12801" width="8.7109375" style="20"/>
-    <col min="12802" max="12802" width="11.140625" style="20" customWidth="1"/>
-    <col min="12803" max="12803" width="144.85546875" style="20" customWidth="1"/>
-    <col min="12804" max="13057" width="8.7109375" style="20"/>
-    <col min="13058" max="13058" width="11.140625" style="20" customWidth="1"/>
-    <col min="13059" max="13059" width="144.85546875" style="20" customWidth="1"/>
-    <col min="13060" max="13313" width="8.7109375" style="20"/>
-    <col min="13314" max="13314" width="11.140625" style="20" customWidth="1"/>
-    <col min="13315" max="13315" width="144.85546875" style="20" customWidth="1"/>
-    <col min="13316" max="13569" width="8.7109375" style="20"/>
-    <col min="13570" max="13570" width="11.140625" style="20" customWidth="1"/>
-    <col min="13571" max="13571" width="144.85546875" style="20" customWidth="1"/>
-    <col min="13572" max="13825" width="8.7109375" style="20"/>
-    <col min="13826" max="13826" width="11.140625" style="20" customWidth="1"/>
-    <col min="13827" max="13827" width="144.85546875" style="20" customWidth="1"/>
-    <col min="13828" max="14081" width="8.7109375" style="20"/>
-    <col min="14082" max="14082" width="11.140625" style="20" customWidth="1"/>
-    <col min="14083" max="14083" width="144.85546875" style="20" customWidth="1"/>
-    <col min="14084" max="14337" width="8.7109375" style="20"/>
-    <col min="14338" max="14338" width="11.140625" style="20" customWidth="1"/>
-    <col min="14339" max="14339" width="144.85546875" style="20" customWidth="1"/>
-    <col min="14340" max="14593" width="8.7109375" style="20"/>
-    <col min="14594" max="14594" width="11.140625" style="20" customWidth="1"/>
-    <col min="14595" max="14595" width="144.85546875" style="20" customWidth="1"/>
-    <col min="14596" max="14849" width="8.7109375" style="20"/>
-    <col min="14850" max="14850" width="11.140625" style="20" customWidth="1"/>
-    <col min="14851" max="14851" width="144.85546875" style="20" customWidth="1"/>
-    <col min="14852" max="15105" width="8.7109375" style="20"/>
-    <col min="15106" max="15106" width="11.140625" style="20" customWidth="1"/>
-    <col min="15107" max="15107" width="144.85546875" style="20" customWidth="1"/>
-    <col min="15108" max="15361" width="8.7109375" style="20"/>
-    <col min="15362" max="15362" width="11.140625" style="20" customWidth="1"/>
-    <col min="15363" max="15363" width="144.85546875" style="20" customWidth="1"/>
-    <col min="15364" max="15617" width="8.7109375" style="20"/>
-    <col min="15618" max="15618" width="11.140625" style="20" customWidth="1"/>
-    <col min="15619" max="15619" width="144.85546875" style="20" customWidth="1"/>
-    <col min="15620" max="15873" width="8.7109375" style="20"/>
-    <col min="15874" max="15874" width="11.140625" style="20" customWidth="1"/>
-    <col min="15875" max="15875" width="144.85546875" style="20" customWidth="1"/>
-    <col min="15876" max="16129" width="8.7109375" style="20"/>
-    <col min="16130" max="16130" width="11.140625" style="20" customWidth="1"/>
-    <col min="16131" max="16131" width="144.85546875" style="20" customWidth="1"/>
-    <col min="16132" max="16384" width="8.7109375" style="20"/>
+    <col min="1" max="1" width="8.796875" style="18"/>
+    <col min="2" max="2" width="11.19921875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="144.796875" style="18" customWidth="1"/>
+    <col min="4" max="257" width="8.796875" style="19"/>
+    <col min="258" max="258" width="11.19921875" style="19" customWidth="1"/>
+    <col min="259" max="259" width="144.796875" style="19" customWidth="1"/>
+    <col min="260" max="513" width="8.796875" style="19"/>
+    <col min="514" max="514" width="11.19921875" style="19" customWidth="1"/>
+    <col min="515" max="515" width="144.796875" style="19" customWidth="1"/>
+    <col min="516" max="769" width="8.796875" style="19"/>
+    <col min="770" max="770" width="11.19921875" style="19" customWidth="1"/>
+    <col min="771" max="771" width="144.796875" style="19" customWidth="1"/>
+    <col min="772" max="1025" width="8.796875" style="19"/>
+    <col min="1026" max="1026" width="11.19921875" style="19" customWidth="1"/>
+    <col min="1027" max="1027" width="144.796875" style="19" customWidth="1"/>
+    <col min="1028" max="1281" width="8.796875" style="19"/>
+    <col min="1282" max="1282" width="11.19921875" style="19" customWidth="1"/>
+    <col min="1283" max="1283" width="144.796875" style="19" customWidth="1"/>
+    <col min="1284" max="1537" width="8.796875" style="19"/>
+    <col min="1538" max="1538" width="11.19921875" style="19" customWidth="1"/>
+    <col min="1539" max="1539" width="144.796875" style="19" customWidth="1"/>
+    <col min="1540" max="1793" width="8.796875" style="19"/>
+    <col min="1794" max="1794" width="11.19921875" style="19" customWidth="1"/>
+    <col min="1795" max="1795" width="144.796875" style="19" customWidth="1"/>
+    <col min="1796" max="2049" width="8.796875" style="19"/>
+    <col min="2050" max="2050" width="11.19921875" style="19" customWidth="1"/>
+    <col min="2051" max="2051" width="144.796875" style="19" customWidth="1"/>
+    <col min="2052" max="2305" width="8.796875" style="19"/>
+    <col min="2306" max="2306" width="11.19921875" style="19" customWidth="1"/>
+    <col min="2307" max="2307" width="144.796875" style="19" customWidth="1"/>
+    <col min="2308" max="2561" width="8.796875" style="19"/>
+    <col min="2562" max="2562" width="11.19921875" style="19" customWidth="1"/>
+    <col min="2563" max="2563" width="144.796875" style="19" customWidth="1"/>
+    <col min="2564" max="2817" width="8.796875" style="19"/>
+    <col min="2818" max="2818" width="11.19921875" style="19" customWidth="1"/>
+    <col min="2819" max="2819" width="144.796875" style="19" customWidth="1"/>
+    <col min="2820" max="3073" width="8.796875" style="19"/>
+    <col min="3074" max="3074" width="11.19921875" style="19" customWidth="1"/>
+    <col min="3075" max="3075" width="144.796875" style="19" customWidth="1"/>
+    <col min="3076" max="3329" width="8.796875" style="19"/>
+    <col min="3330" max="3330" width="11.19921875" style="19" customWidth="1"/>
+    <col min="3331" max="3331" width="144.796875" style="19" customWidth="1"/>
+    <col min="3332" max="3585" width="8.796875" style="19"/>
+    <col min="3586" max="3586" width="11.19921875" style="19" customWidth="1"/>
+    <col min="3587" max="3587" width="144.796875" style="19" customWidth="1"/>
+    <col min="3588" max="3841" width="8.796875" style="19"/>
+    <col min="3842" max="3842" width="11.19921875" style="19" customWidth="1"/>
+    <col min="3843" max="3843" width="144.796875" style="19" customWidth="1"/>
+    <col min="3844" max="4097" width="8.796875" style="19"/>
+    <col min="4098" max="4098" width="11.19921875" style="19" customWidth="1"/>
+    <col min="4099" max="4099" width="144.796875" style="19" customWidth="1"/>
+    <col min="4100" max="4353" width="8.796875" style="19"/>
+    <col min="4354" max="4354" width="11.19921875" style="19" customWidth="1"/>
+    <col min="4355" max="4355" width="144.796875" style="19" customWidth="1"/>
+    <col min="4356" max="4609" width="8.796875" style="19"/>
+    <col min="4610" max="4610" width="11.19921875" style="19" customWidth="1"/>
+    <col min="4611" max="4611" width="144.796875" style="19" customWidth="1"/>
+    <col min="4612" max="4865" width="8.796875" style="19"/>
+    <col min="4866" max="4866" width="11.19921875" style="19" customWidth="1"/>
+    <col min="4867" max="4867" width="144.796875" style="19" customWidth="1"/>
+    <col min="4868" max="5121" width="8.796875" style="19"/>
+    <col min="5122" max="5122" width="11.19921875" style="19" customWidth="1"/>
+    <col min="5123" max="5123" width="144.796875" style="19" customWidth="1"/>
+    <col min="5124" max="5377" width="8.796875" style="19"/>
+    <col min="5378" max="5378" width="11.19921875" style="19" customWidth="1"/>
+    <col min="5379" max="5379" width="144.796875" style="19" customWidth="1"/>
+    <col min="5380" max="5633" width="8.796875" style="19"/>
+    <col min="5634" max="5634" width="11.19921875" style="19" customWidth="1"/>
+    <col min="5635" max="5635" width="144.796875" style="19" customWidth="1"/>
+    <col min="5636" max="5889" width="8.796875" style="19"/>
+    <col min="5890" max="5890" width="11.19921875" style="19" customWidth="1"/>
+    <col min="5891" max="5891" width="144.796875" style="19" customWidth="1"/>
+    <col min="5892" max="6145" width="8.796875" style="19"/>
+    <col min="6146" max="6146" width="11.19921875" style="19" customWidth="1"/>
+    <col min="6147" max="6147" width="144.796875" style="19" customWidth="1"/>
+    <col min="6148" max="6401" width="8.796875" style="19"/>
+    <col min="6402" max="6402" width="11.19921875" style="19" customWidth="1"/>
+    <col min="6403" max="6403" width="144.796875" style="19" customWidth="1"/>
+    <col min="6404" max="6657" width="8.796875" style="19"/>
+    <col min="6658" max="6658" width="11.19921875" style="19" customWidth="1"/>
+    <col min="6659" max="6659" width="144.796875" style="19" customWidth="1"/>
+    <col min="6660" max="6913" width="8.796875" style="19"/>
+    <col min="6914" max="6914" width="11.19921875" style="19" customWidth="1"/>
+    <col min="6915" max="6915" width="144.796875" style="19" customWidth="1"/>
+    <col min="6916" max="7169" width="8.796875" style="19"/>
+    <col min="7170" max="7170" width="11.19921875" style="19" customWidth="1"/>
+    <col min="7171" max="7171" width="144.796875" style="19" customWidth="1"/>
+    <col min="7172" max="7425" width="8.796875" style="19"/>
+    <col min="7426" max="7426" width="11.19921875" style="19" customWidth="1"/>
+    <col min="7427" max="7427" width="144.796875" style="19" customWidth="1"/>
+    <col min="7428" max="7681" width="8.796875" style="19"/>
+    <col min="7682" max="7682" width="11.19921875" style="19" customWidth="1"/>
+    <col min="7683" max="7683" width="144.796875" style="19" customWidth="1"/>
+    <col min="7684" max="7937" width="8.796875" style="19"/>
+    <col min="7938" max="7938" width="11.19921875" style="19" customWidth="1"/>
+    <col min="7939" max="7939" width="144.796875" style="19" customWidth="1"/>
+    <col min="7940" max="8193" width="8.796875" style="19"/>
+    <col min="8194" max="8194" width="11.19921875" style="19" customWidth="1"/>
+    <col min="8195" max="8195" width="144.796875" style="19" customWidth="1"/>
+    <col min="8196" max="8449" width="8.796875" style="19"/>
+    <col min="8450" max="8450" width="11.19921875" style="19" customWidth="1"/>
+    <col min="8451" max="8451" width="144.796875" style="19" customWidth="1"/>
+    <col min="8452" max="8705" width="8.796875" style="19"/>
+    <col min="8706" max="8706" width="11.19921875" style="19" customWidth="1"/>
+    <col min="8707" max="8707" width="144.796875" style="19" customWidth="1"/>
+    <col min="8708" max="8961" width="8.796875" style="19"/>
+    <col min="8962" max="8962" width="11.19921875" style="19" customWidth="1"/>
+    <col min="8963" max="8963" width="144.796875" style="19" customWidth="1"/>
+    <col min="8964" max="9217" width="8.796875" style="19"/>
+    <col min="9218" max="9218" width="11.19921875" style="19" customWidth="1"/>
+    <col min="9219" max="9219" width="144.796875" style="19" customWidth="1"/>
+    <col min="9220" max="9473" width="8.796875" style="19"/>
+    <col min="9474" max="9474" width="11.19921875" style="19" customWidth="1"/>
+    <col min="9475" max="9475" width="144.796875" style="19" customWidth="1"/>
+    <col min="9476" max="9729" width="8.796875" style="19"/>
+    <col min="9730" max="9730" width="11.19921875" style="19" customWidth="1"/>
+    <col min="9731" max="9731" width="144.796875" style="19" customWidth="1"/>
+    <col min="9732" max="9985" width="8.796875" style="19"/>
+    <col min="9986" max="9986" width="11.19921875" style="19" customWidth="1"/>
+    <col min="9987" max="9987" width="144.796875" style="19" customWidth="1"/>
+    <col min="9988" max="10241" width="8.796875" style="19"/>
+    <col min="10242" max="10242" width="11.19921875" style="19" customWidth="1"/>
+    <col min="10243" max="10243" width="144.796875" style="19" customWidth="1"/>
+    <col min="10244" max="10497" width="8.796875" style="19"/>
+    <col min="10498" max="10498" width="11.19921875" style="19" customWidth="1"/>
+    <col min="10499" max="10499" width="144.796875" style="19" customWidth="1"/>
+    <col min="10500" max="10753" width="8.796875" style="19"/>
+    <col min="10754" max="10754" width="11.19921875" style="19" customWidth="1"/>
+    <col min="10755" max="10755" width="144.796875" style="19" customWidth="1"/>
+    <col min="10756" max="11009" width="8.796875" style="19"/>
+    <col min="11010" max="11010" width="11.19921875" style="19" customWidth="1"/>
+    <col min="11011" max="11011" width="144.796875" style="19" customWidth="1"/>
+    <col min="11012" max="11265" width="8.796875" style="19"/>
+    <col min="11266" max="11266" width="11.19921875" style="19" customWidth="1"/>
+    <col min="11267" max="11267" width="144.796875" style="19" customWidth="1"/>
+    <col min="11268" max="11521" width="8.796875" style="19"/>
+    <col min="11522" max="11522" width="11.19921875" style="19" customWidth="1"/>
+    <col min="11523" max="11523" width="144.796875" style="19" customWidth="1"/>
+    <col min="11524" max="11777" width="8.796875" style="19"/>
+    <col min="11778" max="11778" width="11.19921875" style="19" customWidth="1"/>
+    <col min="11779" max="11779" width="144.796875" style="19" customWidth="1"/>
+    <col min="11780" max="12033" width="8.796875" style="19"/>
+    <col min="12034" max="12034" width="11.19921875" style="19" customWidth="1"/>
+    <col min="12035" max="12035" width="144.796875" style="19" customWidth="1"/>
+    <col min="12036" max="12289" width="8.796875" style="19"/>
+    <col min="12290" max="12290" width="11.19921875" style="19" customWidth="1"/>
+    <col min="12291" max="12291" width="144.796875" style="19" customWidth="1"/>
+    <col min="12292" max="12545" width="8.796875" style="19"/>
+    <col min="12546" max="12546" width="11.19921875" style="19" customWidth="1"/>
+    <col min="12547" max="12547" width="144.796875" style="19" customWidth="1"/>
+    <col min="12548" max="12801" width="8.796875" style="19"/>
+    <col min="12802" max="12802" width="11.19921875" style="19" customWidth="1"/>
+    <col min="12803" max="12803" width="144.796875" style="19" customWidth="1"/>
+    <col min="12804" max="13057" width="8.796875" style="19"/>
+    <col min="13058" max="13058" width="11.19921875" style="19" customWidth="1"/>
+    <col min="13059" max="13059" width="144.796875" style="19" customWidth="1"/>
+    <col min="13060" max="13313" width="8.796875" style="19"/>
+    <col min="13314" max="13314" width="11.19921875" style="19" customWidth="1"/>
+    <col min="13315" max="13315" width="144.796875" style="19" customWidth="1"/>
+    <col min="13316" max="13569" width="8.796875" style="19"/>
+    <col min="13570" max="13570" width="11.19921875" style="19" customWidth="1"/>
+    <col min="13571" max="13571" width="144.796875" style="19" customWidth="1"/>
+    <col min="13572" max="13825" width="8.796875" style="19"/>
+    <col min="13826" max="13826" width="11.19921875" style="19" customWidth="1"/>
+    <col min="13827" max="13827" width="144.796875" style="19" customWidth="1"/>
+    <col min="13828" max="14081" width="8.796875" style="19"/>
+    <col min="14082" max="14082" width="11.19921875" style="19" customWidth="1"/>
+    <col min="14083" max="14083" width="144.796875" style="19" customWidth="1"/>
+    <col min="14084" max="14337" width="8.796875" style="19"/>
+    <col min="14338" max="14338" width="11.19921875" style="19" customWidth="1"/>
+    <col min="14339" max="14339" width="144.796875" style="19" customWidth="1"/>
+    <col min="14340" max="14593" width="8.796875" style="19"/>
+    <col min="14594" max="14594" width="11.19921875" style="19" customWidth="1"/>
+    <col min="14595" max="14595" width="144.796875" style="19" customWidth="1"/>
+    <col min="14596" max="14849" width="8.796875" style="19"/>
+    <col min="14850" max="14850" width="11.19921875" style="19" customWidth="1"/>
+    <col min="14851" max="14851" width="144.796875" style="19" customWidth="1"/>
+    <col min="14852" max="15105" width="8.796875" style="19"/>
+    <col min="15106" max="15106" width="11.19921875" style="19" customWidth="1"/>
+    <col min="15107" max="15107" width="144.796875" style="19" customWidth="1"/>
+    <col min="15108" max="15361" width="8.796875" style="19"/>
+    <col min="15362" max="15362" width="11.19921875" style="19" customWidth="1"/>
+    <col min="15363" max="15363" width="144.796875" style="19" customWidth="1"/>
+    <col min="15364" max="15617" width="8.796875" style="19"/>
+    <col min="15618" max="15618" width="11.19921875" style="19" customWidth="1"/>
+    <col min="15619" max="15619" width="144.796875" style="19" customWidth="1"/>
+    <col min="15620" max="15873" width="8.796875" style="19"/>
+    <col min="15874" max="15874" width="11.19921875" style="19" customWidth="1"/>
+    <col min="15875" max="15875" width="144.796875" style="19" customWidth="1"/>
+    <col min="15876" max="16129" width="8.796875" style="19"/>
+    <col min="16130" max="16130" width="11.19921875" style="19" customWidth="1"/>
+    <col min="16131" max="16131" width="144.796875" style="19" customWidth="1"/>
+    <col min="16132" max="16384" width="8.796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" s="17" customFormat="1" ht="12">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+    <row r="2" spans="1:3" ht="12">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+    <row r="3" spans="1:3" ht="24">
+      <c r="A3" s="18">
         <v>80906</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="18">
         <v>80907</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+    <row r="5" spans="1:3" ht="84">
+      <c r="A5" s="18">
         <v>80915</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+    <row r="6" spans="1:3" ht="12">
+      <c r="A6" s="18">
         <v>81401</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+    <row r="7" spans="1:3" ht="12">
+      <c r="A7" s="18">
         <v>80916</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+    <row r="8" spans="1:3" ht="12">
+      <c r="A8" s="18">
         <v>80917</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+    <row r="9" spans="1:3" ht="12">
+      <c r="A9" s="18">
         <v>80908</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+    <row r="10" spans="1:3" ht="12">
+      <c r="A10" s="18">
         <v>80909</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+    <row r="11" spans="1:3" ht="48">
+      <c r="A11" s="18">
         <v>81626</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+    <row r="12" spans="1:3" ht="156">
+      <c r="A12" s="18">
         <v>81631</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+    <row r="13" spans="1:3" ht="12">
+      <c r="A13" s="18">
         <v>81636</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+    <row r="14" spans="1:3" ht="72">
+      <c r="A14" s="18">
         <v>81641</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+    <row r="15" spans="1:3" ht="48">
+      <c r="A15" s="18">
         <v>81646</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+    <row r="16" spans="1:3" ht="156">
+      <c r="A16" s="18">
         <v>81651</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+    <row r="17" spans="1:3" ht="12">
+      <c r="A17" s="19">
         <v>81656</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+    <row r="18" spans="1:3" ht="72">
+      <c r="A18" s="19">
         <v>81661</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
+    <row r="19" spans="1:3" ht="12">
+      <c r="A19" s="19">
         <v>81666</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:3" ht="156">
+      <c r="A20" s="19">
         <v>81671</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+    <row r="21" spans="1:3" ht="12">
+      <c r="A21" s="19">
         <v>81676</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+    <row r="22" spans="1:3" ht="72">
+      <c r="A22" s="19">
         <v>81681</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-    </row>
-    <row r="81" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" s="19" customFormat="1"/>
+    <row r="34" s="19" customFormat="1"/>
+    <row r="35" s="19" customFormat="1"/>
+    <row r="36" s="19" customFormat="1"/>
+    <row r="37" s="19" customFormat="1"/>
+    <row r="38" s="19" customFormat="1"/>
+    <row r="39" s="19" customFormat="1"/>
+    <row r="40" s="19" customFormat="1"/>
+    <row r="41" s="19" customFormat="1"/>
+    <row r="42" s="19" customFormat="1"/>
+    <row r="43" s="19" customFormat="1"/>
+    <row r="44" s="19" customFormat="1"/>
+    <row r="45" s="19" customFormat="1"/>
+    <row r="46" s="19" customFormat="1"/>
+    <row r="47" s="19" customFormat="1"/>
+    <row r="48" s="19" customFormat="1"/>
+    <row r="49" s="19" customFormat="1"/>
+    <row r="50" s="19" customFormat="1"/>
+    <row r="51" s="19" customFormat="1"/>
+    <row r="52" s="19" customFormat="1"/>
+    <row r="53" s="19" customFormat="1"/>
+    <row r="54" s="19" customFormat="1"/>
+    <row r="55" s="19" customFormat="1"/>
+    <row r="56" s="19" customFormat="1"/>
+    <row r="57" s="19" customFormat="1"/>
+    <row r="58" s="19" customFormat="1"/>
+    <row r="59" s="19" customFormat="1"/>
+    <row r="60" s="19" customFormat="1"/>
+    <row r="61" s="19" customFormat="1"/>
+    <row r="62" s="19" customFormat="1"/>
+    <row r="63" s="19" customFormat="1"/>
+    <row r="64" s="19" customFormat="1"/>
+    <row r="65" s="19" customFormat="1"/>
+    <row r="66" s="19" customFormat="1"/>
+    <row r="67" s="19" customFormat="1"/>
+    <row r="68" s="19" customFormat="1"/>
+    <row r="69" s="19" customFormat="1"/>
+    <row r="70" s="19" customFormat="1"/>
+    <row r="71" s="19" customFormat="1"/>
+    <row r="72" s="19" customFormat="1"/>
+    <row r="73" s="19" customFormat="1"/>
+    <row r="74" s="19" customFormat="1"/>
+    <row r="75" s="19" customFormat="1"/>
+    <row r="76" s="19" customFormat="1"/>
+    <row r="77" s="19" customFormat="1"/>
+    <row r="78" s="19" customFormat="1"/>
+    <row r="79" s="19" customFormat="1"/>
+    <row r="80" s="19" customFormat="1"/>
+    <row r="81" s="19" customFormat="1"/>
+    <row r="82" s="19" customFormat="1"/>
+    <row r="83" s="19" customFormat="1"/>
+    <row r="84" s="19" customFormat="1"/>
+    <row r="85" s="19" customFormat="1"/>
+    <row r="86" s="19" customFormat="1"/>
+    <row r="87" s="19" customFormat="1"/>
+    <row r="88" s="19" customFormat="1"/>
+    <row r="89" s="19" customFormat="1"/>
+    <row r="90" s="19" customFormat="1"/>
+    <row r="91" s="19" customFormat="1"/>
+    <row r="92" s="19" customFormat="1"/>
+    <row r="93" s="19" customFormat="1"/>
+    <row r="94" s="19" customFormat="1"/>
+    <row r="95" s="19" customFormat="1"/>
+    <row r="96" s="19" customFormat="1"/>
+    <row r="97" s="19" customFormat="1"/>
+    <row r="98" s="19" customFormat="1"/>
+    <row r="99" s="19" customFormat="1"/>
+    <row r="100" s="19" customFormat="1"/>
+    <row r="101" s="19" customFormat="1"/>
+    <row r="102" s="19" customFormat="1"/>
+    <row r="103" s="19" customFormat="1"/>
+    <row r="104" s="19" customFormat="1"/>
+    <row r="105" s="19" customFormat="1"/>
+    <row r="106" s="19" customFormat="1"/>
+    <row r="107" s="19" customFormat="1"/>
+    <row r="108" s="19" customFormat="1"/>
+    <row r="109" s="19" customFormat="1"/>
+    <row r="110" s="19" customFormat="1"/>
+    <row r="111" s="19" customFormat="1"/>
+    <row r="112" s="19" customFormat="1"/>
+    <row r="113" s="19" customFormat="1"/>
+    <row r="114" s="19" customFormat="1"/>
+    <row r="115" s="19" customFormat="1"/>
+    <row r="116" s="19" customFormat="1"/>
+    <row r="117" s="19" customFormat="1"/>
+    <row r="118" s="19" customFormat="1"/>
+    <row r="119" s="19" customFormat="1"/>
+    <row r="120" s="19" customFormat="1"/>
+    <row r="121" s="19" customFormat="1"/>
+    <row r="122" s="19" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -3495,7 +3258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3503,20 +3266,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="9" customWidth="1"/>
     <col min="8" max="8" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -3542,7 +3305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>80906</v>
       </c>
@@ -3568,7 +3331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>80907</v>
       </c>
@@ -3594,7 +3357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>80915</v>
       </c>
@@ -3620,7 +3383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>81401</v>
       </c>
@@ -3646,7 +3409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>80916</v>
       </c>
@@ -3672,7 +3435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>80917</v>
       </c>
@@ -3698,7 +3461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>80908</v>
       </c>
@@ -3724,7 +3487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>80909</v>
       </c>
@@ -3750,7 +3513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>81626</v>
       </c>
@@ -3776,7 +3539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>81631</v>
       </c>
@@ -3802,7 +3565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>81636</v>
       </c>
@@ -3828,7 +3591,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>81641</v>
       </c>
@@ -3854,7 +3617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>81646</v>
       </c>
@@ -3880,7 +3643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>81651</v>
       </c>
@@ -3906,7 +3669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>81656</v>
       </c>
@@ -3932,7 +3695,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>81661</v>
       </c>
@@ -3958,7 +3721,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>81666</v>
       </c>
@@ -3984,7 +3747,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>81671</v>
       </c>
@@ -4010,7 +3773,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>81676</v>
       </c>
@@ -4036,7 +3799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>81681</v>
       </c>
@@ -4062,55 +3825,55 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="E31" s="10"/>
     </row>
-    <row r="35" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:7" s="1" customFormat="1">
       <c r="D35" s="12"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:7" s="1" customFormat="1">
       <c r="D36" s="12"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:7" s="1" customFormat="1">
       <c r="D37" s="12"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:7" s="1" customFormat="1">
       <c r="D38" s="12"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -4123,24 +3886,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -4148,7 +3911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -4156,7 +3919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -4164,7 +3927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,7 +3935,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
@@ -4180,7 +3943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -4188,7 +3951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -4196,7 +3959,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -4204,7 +3967,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -4212,7 +3975,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -4220,7 +3983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -4228,7 +3991,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -4236,7 +3999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -4244,7 +4007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
